--- a/data/trans_orig/P36B12_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B12_2023-Estudios-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de huevos en 2023 (Tasa respuesta: 99,92%)</t>
+          <t>Población según la frecuencia de consumo de huevos en 2023 (Tasa respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>54,17%</t>
+          <t>54,24%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>60,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>54,28%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>58,98%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>31,41%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>10,31%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>57,13%</t>
+          <t>57,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>45,92%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57,78%</t>
+          <t>57,8%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>56,75%</t>
+          <t>56,88%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>28,1%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
+          <t>44,21%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>36,99%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,56%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,61%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>58,85%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>50,37%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>55,73%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>32,19%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>50,43%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>55,81%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>57,39%</t>
+          <t>57,32%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>51,15%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>56,06%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>28,88%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>34,54%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,78%</t>
         </is>
       </c>
     </row>
